--- a/final_icppt.xlsx
+++ b/final_icppt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\ARTEMIS\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\ARTEMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEE2490-E88A-452A-ACEE-599F527E073F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89391DEC-37AC-4F5E-A0FF-A46233D551E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -678,10 +678,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -722,7 +722,7 @@
           <c:strCache>
             <c:ptCount val="1"/>
             <c:pt idx="0">
-              <c:v>Nuclear installed capacity in Germany (in MWh)</c:v>
+              <c:v>Combustible fuels installed capacity in Czech Republic (in MWh)</c:v>
             </c:pt>
           </c:strCache>
         </c:strRef>
@@ -843,22 +843,22 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12068</c:v>
+                  <c:v>11500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10793</c:v>
+                  <c:v>11140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10793</c:v>
+                  <c:v>10735</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9516</c:v>
+                  <c:v>11348</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9516</c:v>
+                  <c:v>11256</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8114</c:v>
+                  <c:v>10956</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -948,25 +948,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>12074</c:v>
+                  <c:v>13032</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10799</c:v>
+                  <c:v>12960</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10799</c:v>
+                  <c:v>13087</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10799</c:v>
+                  <c:v>13334.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10799</c:v>
+                  <c:v>13349.851999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9525</c:v>
+                  <c:v>13031.073</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8113</c:v>
+                  <c:v>12384.096</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12602,7 +12602,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12624,28 +12624,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" s="23" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>B3</f>
-        <v>Germany</v>
+        <v>Czech Republic</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>C3</f>
-        <v>Nuclear</v>
+        <v>Combustible fuels</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>CONCATENATE(C3, " installed capacity in ", B3," (in MWh)")</f>
-        <v>Nuclear installed capacity in Germany (in MWh)</v>
+        <v>Combustible fuels installed capacity in Czech Republic (in MWh)</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -12673,13 +12673,13 @@
       </c>
       <c r="E9" s="28">
         <f t="array" ref="E9">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C9&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>12074</v>
+        <v>13032</v>
       </c>
       <c r="F9" s="28" t="e">
         <f>D9-E9</f>
         <v>#N/A</v>
       </c>
-      <c r="G9" s="30" t="e">
+      <c r="G9" s="29" t="e">
         <f>(D9-E9)/E9</f>
         <v>#N/A</v>
       </c>
@@ -12690,19 +12690,19 @@
       </c>
       <c r="D10" s="28" cm="1">
         <f t="array" ref="D10">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C10&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>12068</v>
+        <v>11500</v>
       </c>
       <c r="E10" s="28">
         <f t="array" ref="E10">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C10&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>10799</v>
+        <v>12960</v>
       </c>
       <c r="F10" s="28">
         <f t="shared" ref="F10:F15" si="0">D10-E10</f>
-        <v>1269</v>
-      </c>
-      <c r="G10" s="30">
+        <v>-1460</v>
+      </c>
+      <c r="G10" s="29">
         <f t="shared" ref="G10:G15" si="1">(D10-E10)/E10</f>
-        <v>0.11751088063709603</v>
+        <v>-0.11265432098765432</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -12711,19 +12711,19 @@
       </c>
       <c r="D11" s="28" cm="1">
         <f t="array" ref="D11">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C11&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>10793</v>
+        <v>11140</v>
       </c>
       <c r="E11" s="28">
         <f t="array" ref="E11">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C11&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>10799</v>
+        <v>13087</v>
       </c>
       <c r="F11" s="28">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="G11" s="30">
+        <v>-1947</v>
+      </c>
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
-        <v>-5.5560700064820822E-4</v>
+        <v>-0.1487735921143119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -12732,19 +12732,19 @@
       </c>
       <c r="D12" s="28" cm="1">
         <f t="array" ref="D12">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C12&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>10793</v>
+        <v>10735</v>
       </c>
       <c r="E12" s="28">
         <f t="array" ref="E12">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C12&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>10799</v>
+        <v>13334.3</v>
       </c>
       <c r="F12" s="28">
         <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-      <c r="G12" s="30">
+        <v>-2599.2999999999993</v>
+      </c>
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
-        <v>-5.5560700064820822E-4</v>
+        <v>-0.19493336733086847</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -12753,19 +12753,19 @@
       </c>
       <c r="D13" s="28" cm="1">
         <f t="array" ref="D13">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C13&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>9516</v>
+        <v>11348</v>
       </c>
       <c r="E13" s="28">
         <f t="array" ref="E13">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C13&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>10799</v>
+        <v>13349.851999999999</v>
       </c>
       <c r="F13" s="28">
         <f t="shared" si="0"/>
-        <v>-1283</v>
-      </c>
-      <c r="G13" s="30">
+        <v>-2001.851999999999</v>
+      </c>
+      <c r="G13" s="29">
         <f t="shared" si="1"/>
-        <v>-0.11880729697194185</v>
+        <v>-0.14995312307582129</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -12774,19 +12774,19 @@
       </c>
       <c r="D14" s="28" cm="1">
         <f t="array" ref="D14">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C14&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>9516</v>
+        <v>11256</v>
       </c>
       <c r="E14" s="28">
         <f t="array" ref="E14">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C14&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>9525</v>
+        <v>13031.073</v>
       </c>
       <c r="F14" s="28">
         <f t="shared" si="0"/>
-        <v>-9</v>
-      </c>
-      <c r="G14" s="30">
+        <v>-1775.0730000000003</v>
+      </c>
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
-        <v>-9.4488188976377954E-4</v>
+        <v>-0.13621848331292444</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -12795,19 +12795,19 @@
       </c>
       <c r="D15" s="28" cm="1">
         <f t="array" ref="D15">INDEX(source!$N$3:$U$198,MATCH(entso_eurostat_comparison!C15&amp;entso_eurostat_comparison!$A$5,source!$L$3:$L$198&amp;source!$M$3:$M$198,0),MATCH(entso_eurostat_comparison!$A$6,source!$N$2:$U$2,0))</f>
-        <v>8114</v>
+        <v>10956</v>
       </c>
       <c r="E15" s="28">
         <f t="array" ref="E15">INDEX(source!$C$3:$J$412,MATCH(entso_eurostat_comparison!C15&amp;entso_eurostat_comparison!$A$5,source!$A$3:$A$412&amp;source!$B$3:$B$412,0),MATCH(entso_eurostat_comparison!$A$6,source!$C$2:$J$2,0))</f>
-        <v>8113</v>
+        <v>12384.096</v>
       </c>
       <c r="F15" s="28">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="30">
+        <v>-1428.0959999999995</v>
+      </c>
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
-        <v>1.2325896708985579E-4</v>
+        <v>-0.11531693552763153</v>
       </c>
     </row>
   </sheetData>
@@ -12840,7 +12840,7 @@
   <dimension ref="A1:U412"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12865,30 +12865,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="L1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="L1" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -13340,7 +13340,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C10">
         <v>11988</v>
@@ -15588,7 +15588,7 @@
         <v>66</v>
       </c>
       <c r="B51" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>12211</v>
@@ -17812,7 +17812,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C92">
         <v>13032</v>
@@ -20042,7 +20042,7 @@
         <v>64</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C133">
         <v>12960</v>
@@ -22275,7 +22275,7 @@
         <v>63</v>
       </c>
       <c r="B174" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C174">
         <v>13087</v>
@@ -24154,7 +24154,7 @@
         <v>62</v>
       </c>
       <c r="B215" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C215">
         <v>13334.3</v>
@@ -25466,7 +25466,7 @@
         <v>61</v>
       </c>
       <c r="B256" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C256">
         <v>13349.851999999999</v>
@@ -26778,7 +26778,7 @@
         <v>60</v>
       </c>
       <c r="B297" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C297">
         <v>13031.073</v>
@@ -28090,7 +28090,7 @@
         <v>59</v>
       </c>
       <c r="B338" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C338">
         <v>12384.096</v>
@@ -29402,7 +29402,7 @@
         <v>57</v>
       </c>
       <c r="B379" s="25" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="C379">
         <v>11874.347000000002</v>
@@ -62506,7 +62506,7 @@
   <dimension ref="A1:P197"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M197"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/final_icppt.xlsx
+++ b/final_icppt.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projets\ARTEMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89391DEC-37AC-4F5E-A0FF-A46233D551E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1BF896-6BE5-42C4-9379-11B9ED1CA3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="entso_eurostat_comparison" sheetId="21" r:id="rId1"/>
-    <sheet name="source" sheetId="20" r:id="rId2"/>
-    <sheet name="pivot" sheetId="18" r:id="rId3"/>
-    <sheet name="eurostat_v2" sheetId="13" r:id="rId4"/>
-    <sheet name="entso_v2" sheetId="12" r:id="rId5"/>
-    <sheet name="eurostat" sheetId="3" r:id="rId6"/>
-    <sheet name="entso" sheetId="2" r:id="rId7"/>
+    <sheet name="Feuil3" sheetId="24" r:id="rId1"/>
+    <sheet name="source2" sheetId="22" r:id="rId2"/>
+    <sheet name="entso_eurostat_comparison" sheetId="21" r:id="rId3"/>
+    <sheet name="source" sheetId="20" r:id="rId4"/>
+    <sheet name="pivot" sheetId="18" r:id="rId5"/>
+    <sheet name="eurostat_v2" sheetId="13" r:id="rId6"/>
+    <sheet name="entso_v2" sheetId="12" r:id="rId7"/>
+    <sheet name="eurostat" sheetId="3" r:id="rId8"/>
+    <sheet name="entso" sheetId="2" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">source2!$A$1:$C$197</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="1" r:id="rId9"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -68,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4585" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5272" uniqueCount="129">
   <si>
     <t>United Kingdom</t>
   </si>
@@ -450,6 +455,12 @@
   <si>
     <t>Difference in %</t>
   </si>
+  <si>
+    <t>Wind_Entso</t>
+  </si>
+  <si>
+    <t>Wind_Eurostat</t>
+  </si>
 </sst>
 </file>
 
@@ -614,7 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -682,6 +693,8 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -702,6 +715,686 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Feuil3!$A$7</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Wind entso difference from eurostat (more than 0% difference)</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17310563603926732"/>
+          <c:y val="1.9821605550049554E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>2018</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$38:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Croatia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cyprus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montenegro</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>North Macedonia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Romania</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Serbia</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Slovakia</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Spain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$C$38:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-7.843457092941486E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4751732276316902E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5452412293253115E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.3341292853487117E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7435409732129425E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.5932953826691918E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5531419350440814E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57096774193548394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-6.5164135227829489E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.15987383476789452</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-3.4689463735290582E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.22571542261585165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2158054711246202E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.47738748179702495</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.4743176263796469E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.32200788005935621</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-4.5028142589118247E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.9996256936872854E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.4404734805372224E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.4054054054054057E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.3221753156996723E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.9209610160470403E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.492551095586192E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.88986784140969166</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.4398789065011806E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-92F7-4440-AA21-3C0BFC5DF989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2020</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Feuil3!$B$38:$B$65</c:f>
+              <c:strCache>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>Austria</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Belgium</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bulgaria</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Croatia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Cyprus</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Czech Republic</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Denmark</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Estonia</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Finland</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>France</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Germany</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Greece</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Hungary</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Ireland</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Italy</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Latvia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Lithuania</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Montenegro</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Netherlands</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>North Macedonia</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Norway</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Poland</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Portugal</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Romania</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Serbia</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Slovakia</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Spain</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil3!$D$38:$D$65</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>-2.8821948313984658E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-5.7782438418896298E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.9840637450198058E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-7.7748658430051076E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7435409732129425E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.2491750730648787E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.6333513801507058E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.7854889589905349E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.17053364269141535</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-5.2643491223420269E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.4324367775437672E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.23456939976937552</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-5.9483440781953334E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-5.2156983297468984E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.1111111111111072E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2229089194993943E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.32549874960043623</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.23870967741935489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-5.4816814194419083E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.3452825485049558E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.5125628140703071E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.0909090909090828E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-8.8451217206783617E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-3.2878909382518029E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4034582132556075E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-92F7-4440-AA21-3C0BFC5DF989}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1239336192"/>
+        <c:axId val="1239339552"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1239336192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239339552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1239339552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1239336192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
@@ -1337,7 +2030,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1840,7 +3076,102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="26" fmlaLink="$A$3" horiz="1" max="100" page="10" val="0"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>662940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB0EB076-0D6D-E44A-68C3-D7834D0988EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>281940</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>487680</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>68580</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001240000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12598,10 +13929,7240 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F5EEA5-BBF9-4043-B896-1961DB88EA1D}">
+  <dimension ref="A3:E65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="4" width="11.5546875" style="31"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>A3*0.01</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>-A4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="32">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>CONCATENATE("Wind entso difference from eurostat (more than ",A3,"% difference)")</f>
+        <v>Wind entso difference from eurostat (more than 0% difference)</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="31">
+        <v>-7.843457092941486E-2</v>
+      </c>
+      <c r="D7" s="31">
+        <v>-2.8821948313984658E-2</v>
+      </c>
+      <c r="E7" t="b">
+        <f>OR(C7&gt;$A$4,D7&gt;$A$4,C7&lt;$A$5,D7&lt;$A$5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="31">
+        <v>-4.4751732276316902E-2</v>
+      </c>
+      <c r="D8" s="31">
+        <v>-5.7782438418896298E-4</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" ref="E8:E35" si="0">OR(C8&gt;$A$4,D8&gt;$A$4,C8&lt;$A$5,D8&lt;$A$5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="31">
+        <v>1.5452412293253115E-3</v>
+      </c>
+      <c r="D10" s="31">
+        <v>-3.9840637450198058E-3</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="31">
+        <v>-7.3341292853487117E-3</v>
+      </c>
+      <c r="D11" s="31">
+        <v>-7.7748658430051076E-2</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="31">
+        <v>1.7435409732129425E-3</v>
+      </c>
+      <c r="D12" s="31">
+        <v>1.7435409732129425E-3</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="31">
+        <v>-2.5932953826691918E-2</v>
+      </c>
+      <c r="D13" s="31">
+        <v>-1.2491750730648787E-3</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="31">
+        <v>5.5531419350440814E-5</v>
+      </c>
+      <c r="D14" s="31">
+        <v>-2.6333513801507058E-2</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0.57096774193548394</v>
+      </c>
+      <c r="D15" s="31">
+        <v>3.7854889589905349E-2</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="31">
+        <v>-6.5164135227829489E-2</v>
+      </c>
+      <c r="D16" s="31">
+        <v>-0.17053364269141535</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="31">
+        <v>-0.15987383476789452</v>
+      </c>
+      <c r="D17" s="31">
+        <v>-5.2643491223420269E-2</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="31">
+        <v>-3.4689463735290582E-2</v>
+      </c>
+      <c r="D18" s="31">
+        <v>-2.4324367775437672E-2</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="31">
+        <v>-0.22571542261585165</v>
+      </c>
+      <c r="D19" s="31">
+        <v>-0.23456939976937552</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="31">
+        <v>-1.2158054711246202E-2</v>
+      </c>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="31">
+        <v>-0.47738748179702495</v>
+      </c>
+      <c r="D21" s="31">
+        <v>-5.9483440781953334E-2</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="31">
+        <v>-9.4743176263796469E-2</v>
+      </c>
+      <c r="D22" s="31">
+        <v>-5.2156983297468984E-2</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31">
+        <v>-0.32200788005935621</v>
+      </c>
+      <c r="D23" s="31">
+        <v>-1.1111111111111072E-2</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="31">
+        <v>-4.5028142589118247E-2</v>
+      </c>
+      <c r="D24" s="31">
+        <v>8.2229089194993943E-3</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="31">
+        <v>8.9996256936872854E-3</v>
+      </c>
+      <c r="D25" s="31">
+        <v>0</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="31">
+        <v>0</v>
+      </c>
+      <c r="D26" s="31">
+        <v>-0.32549874960043623</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="31">
+        <v>5.4404734805372224E-2</v>
+      </c>
+      <c r="D27" s="31">
+        <v>-0.23870967741935489</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="31">
+        <v>-5.4054054054054057E-2</v>
+      </c>
+      <c r="D28" s="31">
+        <v>-5.4816814194419083E-2</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="31">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D29" s="31">
+        <v>-1.3452825485049558E-2</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="31">
+        <v>4.3221753156996723E-3</v>
+      </c>
+      <c r="D30" s="31">
+        <v>-2.5125628140703071E-3</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="31">
+        <v>-1.9209610160470403E-2</v>
+      </c>
+      <c r="D31" s="31">
+        <v>-0.25</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="31">
+        <v>-1.492551095586192E-2</v>
+      </c>
+      <c r="D32" s="31">
+        <v>-9.0909090909090828E-2</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="31">
+        <v>-0.88986784140969166</v>
+      </c>
+      <c r="D33" s="31">
+        <v>-8.8451217206783617E-2</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="31">
+        <v>-0.25</v>
+      </c>
+      <c r="D34" s="31">
+        <v>-3.2878909382518029E-2</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="31">
+        <v>-2.4398789065011806E-2</v>
+      </c>
+      <c r="D35" s="31">
+        <v>5.4034582132556075E-4</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" t="str" cm="1">
+        <f t="array" ref="B38:E65">_xlfn._xlws.FILTER(B7:E35,E7:E35=A6," ")</f>
+        <v>Austria</v>
+      </c>
+      <c r="C38" s="31">
+        <v>-7.843457092941486E-2</v>
+      </c>
+      <c r="D38" s="31">
+        <v>-2.8821948313984658E-2</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" t="str">
+        <v>Belgium</v>
+      </c>
+      <c r="C39" s="31">
+        <v>-4.4751732276316902E-2</v>
+      </c>
+      <c r="D39" s="31">
+        <v>-5.7782438418896298E-4</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" t="str">
+        <v>Bulgaria</v>
+      </c>
+      <c r="C40" s="31">
+        <v>1.5452412293253115E-3</v>
+      </c>
+      <c r="D40" s="31">
+        <v>-3.9840637450198058E-3</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" t="str">
+        <v>Croatia</v>
+      </c>
+      <c r="C41" s="31">
+        <v>-7.3341292853487117E-3</v>
+      </c>
+      <c r="D41" s="31">
+        <v>-7.7748658430051076E-2</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" t="str">
+        <v>Cyprus</v>
+      </c>
+      <c r="C42" s="31">
+        <v>1.7435409732129425E-3</v>
+      </c>
+      <c r="D42" s="31">
+        <v>1.7435409732129425E-3</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" t="str">
+        <v>Czech Republic</v>
+      </c>
+      <c r="C43" s="31">
+        <v>-2.5932953826691918E-2</v>
+      </c>
+      <c r="D43" s="31">
+        <v>-1.2491750730648787E-3</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" t="str">
+        <v>Denmark</v>
+      </c>
+      <c r="C44" s="31">
+        <v>5.5531419350440814E-5</v>
+      </c>
+      <c r="D44" s="31">
+        <v>-2.6333513801507058E-2</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" t="str">
+        <v>Estonia</v>
+      </c>
+      <c r="C45" s="31">
+        <v>0.57096774193548394</v>
+      </c>
+      <c r="D45" s="31">
+        <v>3.7854889589905349E-2</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="str">
+        <v>Finland</v>
+      </c>
+      <c r="C46" s="31">
+        <v>-6.5164135227829489E-2</v>
+      </c>
+      <c r="D46" s="31">
+        <v>-0.17053364269141535</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <v>France</v>
+      </c>
+      <c r="C47" s="31">
+        <v>-0.15987383476789452</v>
+      </c>
+      <c r="D47" s="31">
+        <v>-5.2643491223420269E-2</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="str">
+        <v>Germany</v>
+      </c>
+      <c r="C48" s="31">
+        <v>-3.4689463735290582E-2</v>
+      </c>
+      <c r="D48" s="31">
+        <v>-2.4324367775437672E-2</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" t="str">
+        <v>Greece</v>
+      </c>
+      <c r="C49" s="31">
+        <v>-0.22571542261585165</v>
+      </c>
+      <c r="D49" s="31">
+        <v>-0.23456939976937552</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" t="str">
+        <v>Hungary</v>
+      </c>
+      <c r="C50" s="31">
+        <v>-1.2158054711246202E-2</v>
+      </c>
+      <c r="D50" s="31">
+        <v>0</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" t="str">
+        <v>Ireland</v>
+      </c>
+      <c r="C51" s="31">
+        <v>-0.47738748179702495</v>
+      </c>
+      <c r="D51" s="31">
+        <v>-5.9483440781953334E-2</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" t="str">
+        <v>Italy</v>
+      </c>
+      <c r="C52" s="31">
+        <v>-9.4743176263796469E-2</v>
+      </c>
+      <c r="D52" s="31">
+        <v>-5.2156983297468984E-2</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53" t="str">
+        <v>Latvia</v>
+      </c>
+      <c r="C53" s="31">
+        <v>-0.32200788005935621</v>
+      </c>
+      <c r="D53" s="31">
+        <v>-1.1111111111111072E-2</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" t="str">
+        <v>Lithuania</v>
+      </c>
+      <c r="C54" s="31">
+        <v>-4.5028142589118247E-2</v>
+      </c>
+      <c r="D54" s="31">
+        <v>8.2229089194993943E-3</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55" t="str">
+        <v>Luxembourg</v>
+      </c>
+      <c r="C55" s="31">
+        <v>8.9996256936872854E-3</v>
+      </c>
+      <c r="D55" s="31">
+        <v>0</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" t="str">
+        <v>Montenegro</v>
+      </c>
+      <c r="C56" s="31">
+        <v>0</v>
+      </c>
+      <c r="D56" s="31">
+        <v>-0.32549874960043623</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" t="str">
+        <v>Netherlands</v>
+      </c>
+      <c r="C57" s="31">
+        <v>5.4404734805372224E-2</v>
+      </c>
+      <c r="D57" s="31">
+        <v>-0.23870967741935489</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58" t="str">
+        <v>North Macedonia</v>
+      </c>
+      <c r="C58" s="31">
+        <v>-5.4054054054054057E-2</v>
+      </c>
+      <c r="D58" s="31">
+        <v>-5.4816814194419083E-2</v>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59" t="str">
+        <v>Norway</v>
+      </c>
+      <c r="C59" s="31">
+        <v>-0.30000000000000004</v>
+      </c>
+      <c r="D59" s="31">
+        <v>-1.3452825485049558E-2</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" t="str">
+        <v>Poland</v>
+      </c>
+      <c r="C60" s="31">
+        <v>4.3221753156996723E-3</v>
+      </c>
+      <c r="D60" s="31">
+        <v>-2.5125628140703071E-3</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61" t="str">
+        <v>Portugal</v>
+      </c>
+      <c r="C61" s="31">
+        <v>-1.9209610160470403E-2</v>
+      </c>
+      <c r="D61" s="31">
+        <v>-0.25</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62" t="str">
+        <v>Romania</v>
+      </c>
+      <c r="C62" s="31">
+        <v>-1.492551095586192E-2</v>
+      </c>
+      <c r="D62" s="31">
+        <v>-9.0909090909090828E-2</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" t="str">
+        <v>Serbia</v>
+      </c>
+      <c r="C63" s="31">
+        <v>-0.88986784140969166</v>
+      </c>
+      <c r="D63" s="31">
+        <v>-8.8451217206783617E-2</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" t="str">
+        <v>Slovakia</v>
+      </c>
+      <c r="C64" s="31">
+        <v>-0.25</v>
+      </c>
+      <c r="D64" s="31">
+        <v>-3.2878909382518029E-2</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65" t="str">
+        <v>Spain</v>
+      </c>
+      <c r="C65" s="31">
+        <v>-2.4398789065011806E-2</v>
+      </c>
+      <c r="D65" s="31">
+        <v>5.4034582132556075E-4</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId4" name="Scroll Bar 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>281940</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>160020</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>487680</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>68580</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF139F-7692-40F4-9145-0CBC979F1200}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O197"/>
+  <sheetViews>
+    <sheetView topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167:D197"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>1835</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2">
+        <v>97</v>
+      </c>
+      <c r="I2">
+        <v>1628</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>329</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>8161</v>
+      </c>
+      <c r="I3">
+        <v>13308.889000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K3">
+        <v>1337.15</v>
+      </c>
+      <c r="L3">
+        <v>337.483</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4">
+        <v>8457</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4">
+        <v>9468</v>
+      </c>
+      <c r="I4">
+        <v>1427</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>1366.9</v>
+      </c>
+      <c r="L4">
+        <v>2646.6</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>5927</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5">
+        <v>2121</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>1961</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>4912</v>
+      </c>
+      <c r="I6">
+        <v>3181</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>677</v>
+      </c>
+      <c r="L6">
+        <v>922</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1906</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>358</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7">
+        <v>1891.4</v>
+      </c>
+      <c r="I7">
+        <v>2129</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>180</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8">
+        <v>1561</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>147.22499999999999</v>
+      </c>
+      <c r="L8">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>11988</v>
+      </c>
+      <c r="I9">
+        <v>2212</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>258</v>
+      </c>
+      <c r="L9">
+        <v>2022</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>4040</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10">
+        <v>270</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10">
+        <v>9500</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>4162</v>
+      </c>
+      <c r="L10">
+        <v>402</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>4845</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>2649</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>266</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12">
+        <v>9566</v>
+      </c>
+      <c r="I12">
+        <v>3080</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>257</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2732</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>496</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13">
+        <v>29658.55</v>
+      </c>
+      <c r="I13">
+        <v>25655.922999999999</v>
+      </c>
+      <c r="J13">
+        <v>13.5</v>
+      </c>
+      <c r="K13">
+        <v>7607.4960000000001</v>
+      </c>
+      <c r="L13">
+        <v>4358.7539999999999</v>
+      </c>
+      <c r="M13">
+        <v>215.90899999999999</v>
+      </c>
+      <c r="N13">
+        <v>63130</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14">
+        <v>10322</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O14" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>38694</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15">
+        <v>89649</v>
+      </c>
+      <c r="I15">
+        <v>11257</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="K15">
+        <v>30979</v>
+      </c>
+      <c r="L15">
+        <v>34077</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>12068</v>
+      </c>
+      <c r="O15">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1613</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16">
+        <v>11226</v>
+      </c>
+      <c r="I16">
+        <v>3236</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1753</v>
+      </c>
+      <c r="L16">
+        <v>1536</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>329</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>7007</v>
+      </c>
+      <c r="I17">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>325</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2000</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>1907</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H18">
+        <v>114</v>
+      </c>
+      <c r="I18">
+        <v>1877</v>
+      </c>
+      <c r="J18">
+        <v>665</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>8457</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <v>6402.5479999999998</v>
+      </c>
+      <c r="I19">
+        <v>529</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1704.35</v>
+      </c>
+      <c r="L19">
+        <v>0.94</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>51</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>76793</v>
+      </c>
+      <c r="I20">
+        <v>21880</v>
+      </c>
+      <c r="J20">
+        <v>728</v>
+      </c>
+      <c r="K20">
+        <v>8102</v>
+      </c>
+      <c r="L20">
+        <v>16785</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21">
+        <v>282</v>
+      </c>
+      <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>915</v>
+      </c>
+      <c r="I21">
+        <v>43</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>1023</v>
+      </c>
+      <c r="I22">
+        <v>1576</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>59</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N23" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O23" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24">
+        <v>2874</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24">
+        <v>3054</v>
+      </c>
+      <c r="I24">
+        <v>876</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>275</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25">
+        <v>873</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>521.75799999999992</v>
+      </c>
+      <c r="I25">
+        <v>1134.308</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>58.326999999999998</v>
+      </c>
+      <c r="L25">
+        <v>74.653999999999996</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>3758</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26">
+        <v>623</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>15.7</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27">
+        <v>4486</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27">
+        <v>471</v>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>2896</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>225</v>
+      </c>
+      <c r="I28">
+        <v>629</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>26518</v>
+      </c>
+      <c r="I29">
+        <v>37</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2433</v>
+      </c>
+      <c r="L29">
+        <v>287.12599999999998</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>510</v>
+      </c>
+      <c r="O29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30">
+        <v>1107</v>
+      </c>
+      <c r="I30">
+        <v>595</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31">
+        <v>1611</v>
+      </c>
+      <c r="I31">
+        <v>30509</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>705</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>22740</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32">
+        <v>30365</v>
+      </c>
+      <c r="I32">
+        <v>2351</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>2564</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>3500</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33">
+        <v>9360</v>
+      </c>
+      <c r="I33">
+        <v>5712</v>
+      </c>
+      <c r="J33">
+        <v>25</v>
+      </c>
+      <c r="K33">
+        <v>4411.5520000000006</v>
+      </c>
+      <c r="L33">
+        <v>238</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34">
+        <v>11945</v>
+      </c>
+      <c r="I34">
+        <v>6548</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1822</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1411</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>13461</v>
+      </c>
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>2965.53</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <v>2497</v>
+      </c>
+      <c r="F36" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>6</v>
+      </c>
+      <c r="H36">
+        <v>3416</v>
+      </c>
+      <c r="I36">
+        <v>2522</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>513</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>1939</v>
+      </c>
+      <c r="O36">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37">
+        <v>1961</v>
+      </c>
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>1267</v>
+      </c>
+      <c r="I37">
+        <v>1254</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>142</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>688</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
+        <v>701</v>
+      </c>
+      <c r="F38" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" t="s">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>49686.205000000002</v>
+      </c>
+      <c r="I38">
+        <v>18550</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>22789</v>
+      </c>
+      <c r="L38">
+        <v>6569</v>
+      </c>
+      <c r="M38">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="N38">
+        <v>7450</v>
+      </c>
+      <c r="O38">
+        <v>49.795000000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>489</v>
+      </c>
+      <c r="F39" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39">
+        <v>8362</v>
+      </c>
+      <c r="I39">
+        <v>16414</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>3606</v>
+      </c>
+      <c r="L39">
+        <v>24</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>9436</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>277</v>
+      </c>
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40">
+        <v>35005</v>
+      </c>
+      <c r="I40">
+        <v>19609</v>
+      </c>
+      <c r="J40">
+        <v>162</v>
+      </c>
+      <c r="K40">
+        <v>2261</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41">
+        <v>4845</v>
+      </c>
+      <c r="F41" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>35129</v>
+      </c>
+      <c r="I41">
+        <v>5470</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>248</v>
+      </c>
+      <c r="L41">
+        <v>319</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>13835</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42">
+        <v>375</v>
+      </c>
+      <c r="F42" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>70872</v>
+      </c>
+      <c r="I42">
+        <v>4437</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>9030.42</v>
+      </c>
+      <c r="L42">
+        <v>1753</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>9946</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>1082</v>
+      </c>
+      <c r="F43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" t="s">
+        <v>34</v>
+      </c>
+      <c r="H43">
+        <v>98</v>
+      </c>
+      <c r="I43">
+        <v>1781</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44">
+        <v>11761</v>
+      </c>
+      <c r="F44" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44">
+        <v>8170</v>
+      </c>
+      <c r="I44">
+        <v>13383.396000000001</v>
+      </c>
+      <c r="J44">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K44">
+        <v>1674.538</v>
+      </c>
+      <c r="L44">
+        <v>625.97400000000005</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>44451</v>
+      </c>
+      <c r="F45" t="s">
+        <v>66</v>
+      </c>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
+      <c r="H45">
+        <v>8910</v>
+      </c>
+      <c r="I45">
+        <v>1426</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>1769</v>
+      </c>
+      <c r="L45">
+        <v>2901.6</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>5927</v>
+      </c>
+      <c r="O45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>1875</v>
+      </c>
+      <c r="F46" t="s">
+        <v>66</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N46" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O46" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>328</v>
+      </c>
+      <c r="F47" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" t="s">
+        <v>30</v>
+      </c>
+      <c r="H47">
+        <v>4701</v>
+      </c>
+      <c r="I47">
+        <v>3203</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>683</v>
+      </c>
+      <c r="L47">
+        <v>1039</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1982</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>1920</v>
+      </c>
+      <c r="F48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>29</v>
+      </c>
+      <c r="H48">
+        <v>1843.9</v>
+      </c>
+      <c r="I48">
+        <v>2178</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>254</v>
+      </c>
+      <c r="L48">
+        <v>19</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>8739</v>
+      </c>
+      <c r="F49" t="s">
+        <v>66</v>
+      </c>
+      <c r="G49" t="s">
+        <v>28</v>
+      </c>
+      <c r="H49">
+        <v>1517</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>147.22499999999999</v>
+      </c>
+      <c r="L49">
+        <v>35</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <v>55</v>
+      </c>
+      <c r="F50" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50">
+        <v>12211</v>
+      </c>
+      <c r="I50">
+        <v>2252</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>262</v>
+      </c>
+      <c r="L50">
+        <v>2063.5</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>4290</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <v>366</v>
+      </c>
+      <c r="F51" t="s">
+        <v>66</v>
+      </c>
+      <c r="G51" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51">
+        <v>8410</v>
+      </c>
+      <c r="I51">
+        <v>9</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>4819</v>
+      </c>
+      <c r="L51">
+        <v>571</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>124</v>
+      </c>
+      <c r="F52" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52">
+        <v>2654</v>
+      </c>
+      <c r="I52">
+        <v>8</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>248</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="F53" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53">
+        <v>10223</v>
+      </c>
+      <c r="I53">
+        <v>3108</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>447</v>
+      </c>
+      <c r="L53">
+        <v>9</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>2752</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54">
+        <v>3391</v>
+      </c>
+      <c r="F54" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54">
+        <v>27608.295999999998</v>
+      </c>
+      <c r="I54">
+        <v>25645.355</v>
+      </c>
+      <c r="J54">
+        <v>15</v>
+      </c>
+      <c r="K54">
+        <v>8155.9610000000002</v>
+      </c>
+      <c r="L54">
+        <v>5277.2889999999998</v>
+      </c>
+      <c r="M54">
+        <v>218.488</v>
+      </c>
+      <c r="N54">
+        <v>63130</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="F55" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="H55">
+        <v>612</v>
+      </c>
+      <c r="I55">
+        <v>2705</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56">
+        <v>873</v>
+      </c>
+      <c r="F56" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56">
+        <v>91368</v>
+      </c>
+      <c r="I56">
+        <v>11239</v>
+      </c>
+      <c r="J56">
+        <v>26</v>
+      </c>
+      <c r="K56">
+        <v>33477</v>
+      </c>
+      <c r="L56">
+        <v>36710</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>12068</v>
+      </c>
+      <c r="O56">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>5494</v>
+      </c>
+      <c r="F57" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57">
+        <v>11229</v>
+      </c>
+      <c r="I57">
+        <v>3238</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1809</v>
+      </c>
+      <c r="L57">
+        <v>2579</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58">
+        <v>4617</v>
+      </c>
+      <c r="F58" t="s">
+        <v>66</v>
+      </c>
+      <c r="G58" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58">
+        <v>5987</v>
+      </c>
+      <c r="I58">
+        <v>57</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>329</v>
+      </c>
+      <c r="L58">
+        <v>35</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>2000</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>2938</v>
+      </c>
+      <c r="F59" t="s">
+        <v>66</v>
+      </c>
+      <c r="G59" t="s">
+        <v>71</v>
+      </c>
+      <c r="H59">
+        <v>114</v>
+      </c>
+      <c r="I59">
+        <v>1984</v>
+      </c>
+      <c r="J59">
+        <v>665</v>
+      </c>
+      <c r="K59">
+        <v>2</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="F60" t="s">
+        <v>66</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H60">
+        <v>6434.0029999999997</v>
+      </c>
+      <c r="I60">
+        <v>529</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1923.3</v>
+      </c>
+      <c r="L60">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="H61">
+        <v>74733</v>
+      </c>
+      <c r="I61">
+        <v>22009</v>
+      </c>
+      <c r="J61">
+        <v>729</v>
+      </c>
+      <c r="K61">
+        <v>8542</v>
+      </c>
+      <c r="L61">
+        <v>18185</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
+      <c r="H62">
+        <v>915</v>
+      </c>
+      <c r="I62">
+        <v>43</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <v>22772</v>
+      </c>
+      <c r="F63" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63">
+        <v>1255</v>
+      </c>
+      <c r="I63">
+        <v>1586.6170000000002</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>65.891999999999996</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>5493</v>
+      </c>
+      <c r="F64" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="J64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="K64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="L64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="N64" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O64" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="F65" t="s">
+        <v>66</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65">
+        <v>3075</v>
+      </c>
+      <c r="I65">
+        <v>876</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>279</v>
+      </c>
+      <c r="L65">
+        <v>68</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>14149</v>
+      </c>
+      <c r="F66" t="s">
+        <v>66</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>525.41399999999999</v>
+      </c>
+      <c r="I66">
+        <v>1134.308</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>58.326999999999998</v>
+      </c>
+      <c r="L66">
+        <v>95.021000000000001</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67">
+        <v>2696</v>
+      </c>
+      <c r="F67" t="s">
+        <v>66</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67">
+        <v>623</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0.1</v>
+      </c>
+      <c r="L67">
+        <v>28.5</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>2622</v>
+      </c>
+      <c r="F68" t="s">
+        <v>66</v>
+      </c>
+      <c r="G68" t="s">
+        <v>69</v>
+      </c>
+      <c r="H68">
+        <v>470</v>
+      </c>
+      <c r="I68">
+        <v>16</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>62</v>
+      </c>
+      <c r="B69" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="s">
+        <v>66</v>
+      </c>
+      <c r="G69" t="s">
+        <v>14</v>
+      </c>
+      <c r="H69">
+        <v>225</v>
+      </c>
+      <c r="I69">
+        <v>629.84400000000005</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70">
+        <v>701</v>
+      </c>
+      <c r="F70" t="s">
+        <v>66</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70">
+        <v>26520</v>
+      </c>
+      <c r="I70">
+        <v>37</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2713</v>
+      </c>
+      <c r="L70">
+        <v>650.01299999999992</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>485</v>
+      </c>
+      <c r="O70">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71">
+        <v>537</v>
+      </c>
+      <c r="F71" t="s">
+        <v>66</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71">
+        <v>1107</v>
+      </c>
+      <c r="I71">
+        <v>617</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>7</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>28</v>
+      </c>
+      <c r="C72">
+        <v>158</v>
+      </c>
+      <c r="F72" t="s">
+        <v>66</v>
+      </c>
+      <c r="G72" t="s">
+        <v>11</v>
+      </c>
+      <c r="H72">
+        <v>1600</v>
+      </c>
+      <c r="I72">
+        <v>31033</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>818</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>62</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>277</v>
+      </c>
+      <c r="F73" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>30027</v>
+      </c>
+      <c r="I73">
+        <v>2355</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>3429</v>
+      </c>
+      <c r="L73">
+        <v>2</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>4845</v>
+      </c>
+      <c r="F74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74">
+        <v>8308</v>
+      </c>
+      <c r="I74">
+        <v>5661</v>
+      </c>
+      <c r="J74">
+        <v>25</v>
+      </c>
+      <c r="K74">
+        <v>4609.9489999999996</v>
+      </c>
+      <c r="L74">
+        <v>296</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C75">
+        <v>384</v>
+      </c>
+      <c r="F75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75">
+        <v>11393</v>
+      </c>
+      <c r="I75">
+        <v>6610</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2773</v>
+      </c>
+      <c r="L75">
+        <v>761</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1411</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <v>1432</v>
+      </c>
+      <c r="F76" t="s">
+        <v>66</v>
+      </c>
+      <c r="G76" t="s">
+        <v>7</v>
+      </c>
+      <c r="H76">
+        <v>4175</v>
+      </c>
+      <c r="I76">
+        <v>2931</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>62</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77">
+        <v>13569</v>
+      </c>
+      <c r="F77" t="s">
+        <v>66</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <v>3432</v>
+      </c>
+      <c r="I77">
+        <v>2523</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>5</v>
+      </c>
+      <c r="L77">
+        <v>533</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1940</v>
+      </c>
+      <c r="O77">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>51173</v>
+      </c>
+      <c r="F78" t="s">
+        <v>66</v>
+      </c>
+      <c r="G78" t="s">
+        <v>5</v>
+      </c>
+      <c r="H78">
+        <v>1256</v>
+      </c>
+      <c r="I78">
+        <v>1299</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>187</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>688</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79">
+        <v>1875</v>
+      </c>
+      <c r="F79" t="s">
+        <v>66</v>
+      </c>
+      <c r="G79" t="s">
+        <v>4</v>
+      </c>
+      <c r="H79">
+        <v>49736.205000000002</v>
+      </c>
+      <c r="I79">
+        <v>19185</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>22958</v>
+      </c>
+      <c r="L79">
+        <v>6994.0630000000001</v>
+      </c>
+      <c r="M79">
+        <v>4.7960000000000003</v>
+      </c>
+      <c r="N79">
+        <v>6984</v>
+      </c>
+      <c r="O79">
+        <v>49.795000000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>62</v>
+      </c>
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="C80">
+        <v>324</v>
+      </c>
+      <c r="F80" t="s">
+        <v>66</v>
+      </c>
+      <c r="G80" t="s">
+        <v>3</v>
+      </c>
+      <c r="H80">
+        <v>7776</v>
+      </c>
+      <c r="I80">
+        <v>16494</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>4194</v>
+      </c>
+      <c r="L80">
+        <v>43</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>9408</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>62</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>1920</v>
+      </c>
+      <c r="F81" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" t="s">
+        <v>68</v>
+      </c>
+      <c r="H81">
+        <v>38590</v>
+      </c>
+      <c r="I81">
+        <v>22289</v>
+      </c>
+      <c r="J81">
+        <v>311</v>
+      </c>
+      <c r="K81">
+        <v>2759</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>62</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82">
+        <v>9024</v>
+      </c>
+      <c r="F82" t="s">
+        <v>66</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>35616</v>
+      </c>
+      <c r="I82">
+        <v>5494</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>363</v>
+      </c>
+      <c r="L82">
+        <v>615</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>13835</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83">
+        <v>53</v>
+      </c>
+      <c r="F83" t="s">
+        <v>66</v>
+      </c>
+      <c r="G83" t="s">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>65034</v>
+      </c>
+      <c r="I83">
+        <v>4453</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>11282.272000000001</v>
+      </c>
+      <c r="L83">
+        <v>2937</v>
+      </c>
+      <c r="M83">
+        <v>8</v>
+      </c>
+      <c r="N83">
+        <v>9906</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>62</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84">
+        <v>426</v>
+      </c>
+      <c r="F84" t="s">
+        <v>65</v>
+      </c>
+      <c r="G84" t="s">
+        <v>34</v>
+      </c>
+      <c r="H84">
+        <v>98</v>
+      </c>
+      <c r="I84">
+        <v>1725</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>62</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>124</v>
+      </c>
+      <c r="F85" t="s">
+        <v>65</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85">
+        <v>7859</v>
+      </c>
+      <c r="I85">
+        <v>13532.252</v>
+      </c>
+      <c r="J85">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="K85">
+        <v>2110.2750000000001</v>
+      </c>
+      <c r="L85">
+        <v>785.24599999999998</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>62</v>
+      </c>
+      <c r="B86" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86">
+        <v>72</v>
+      </c>
+      <c r="F86" t="s">
+        <v>65</v>
+      </c>
+      <c r="G86" t="s">
+        <v>32</v>
+      </c>
+      <c r="H86">
+        <v>8601</v>
+      </c>
+      <c r="I86">
+        <v>1428</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>1932.7</v>
+      </c>
+      <c r="L86">
+        <v>3015</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>5927</v>
+      </c>
+      <c r="O86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87">
+        <v>4257</v>
+      </c>
+      <c r="F87" t="s">
+        <v>65</v>
+      </c>
+      <c r="G87" t="s">
+        <v>31</v>
+      </c>
+      <c r="H87">
+        <v>1765</v>
+      </c>
+      <c r="I87">
+        <v>2049</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>62</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88">
+        <v>873</v>
+      </c>
+      <c r="F88" t="s">
+        <v>65</v>
+      </c>
+      <c r="G88" t="s">
+        <v>30</v>
+      </c>
+      <c r="H88">
+        <v>4470</v>
+      </c>
+      <c r="I88">
+        <v>3219</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>699</v>
+      </c>
+      <c r="L88">
+        <v>1029</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>1975</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>62</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>6026</v>
+      </c>
+      <c r="F89" t="s">
+        <v>65</v>
+      </c>
+      <c r="G89" t="s">
+        <v>29</v>
+      </c>
+      <c r="H89">
+        <v>1851.7</v>
+      </c>
+      <c r="I89">
+        <v>2180.1</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>339</v>
+      </c>
+      <c r="L89">
+        <v>33</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>62</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>5028</v>
+      </c>
+      <c r="F90" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" t="s">
+        <v>28</v>
+      </c>
+      <c r="H90">
+        <v>1513</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <v>147.22499999999999</v>
+      </c>
+      <c r="L90">
+        <v>64</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>2985</v>
+      </c>
+      <c r="F91" t="s">
+        <v>65</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91">
+        <v>13032</v>
+      </c>
+      <c r="I91">
+        <v>2252</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>278</v>
+      </c>
+      <c r="L91">
+        <v>2067.4</v>
+      </c>
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>4290</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
+        <v>65</v>
+      </c>
+      <c r="G92" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92">
+        <v>8122</v>
+      </c>
+      <c r="I92">
+        <v>9</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>4886</v>
+      </c>
+      <c r="L92">
+        <v>607</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>6</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="F93" t="s">
+        <v>65</v>
+      </c>
+      <c r="G93" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93">
+        <v>2750</v>
+      </c>
+      <c r="I93">
+        <v>5</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>275</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="F94" t="s">
+        <v>65</v>
+      </c>
+      <c r="G94" t="s">
+        <v>24</v>
+      </c>
+      <c r="H94">
+        <v>9609</v>
+      </c>
+      <c r="I94">
+        <v>3132</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>627</v>
+      </c>
+      <c r="L94">
+        <v>11</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2752</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <v>22813</v>
+      </c>
+      <c r="F95" t="s">
+        <v>65</v>
+      </c>
+      <c r="G95" t="s">
+        <v>23</v>
+      </c>
+      <c r="H95">
+        <v>25917.731</v>
+      </c>
+      <c r="I95">
+        <v>25576.268</v>
+      </c>
+      <c r="J95">
+        <v>15</v>
+      </c>
+      <c r="K95">
+        <v>9201.4250000000011</v>
+      </c>
+      <c r="L95">
+        <v>6034.4170000000004</v>
+      </c>
+      <c r="M95">
+        <v>220.00800000000001</v>
+      </c>
+      <c r="N95">
+        <v>63130</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96">
+        <v>5960</v>
+      </c>
+      <c r="F96" t="s">
+        <v>65</v>
+      </c>
+      <c r="G96" t="s">
+        <v>58</v>
+      </c>
+      <c r="H96">
+        <v>615</v>
+      </c>
+      <c r="I96">
+        <v>2380</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>62</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="s">
+        <v>65</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+      <c r="H97">
+        <v>97203</v>
+      </c>
+      <c r="I97">
+        <v>11234</v>
+      </c>
+      <c r="J97">
+        <v>29</v>
+      </c>
+      <c r="K97">
+        <v>38614</v>
+      </c>
+      <c r="L97">
+        <v>37900</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>12074</v>
+      </c>
+      <c r="O97">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>62</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>16271</v>
+      </c>
+      <c r="F98" t="s">
+        <v>65</v>
+      </c>
+      <c r="G98" t="s">
+        <v>21</v>
+      </c>
+      <c r="H98">
+        <v>10932</v>
+      </c>
+      <c r="I98">
+        <v>3389</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1978</v>
+      </c>
+      <c r="L98">
+        <v>2596</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100">
+        <v>2887</v>
+      </c>
+      <c r="D100">
+        <v>3132.7130000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>3157</v>
+      </c>
+      <c r="D101">
+        <v>3304.8999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>61</v>
+      </c>
+      <c r="B102" t="s">
+        <v>31</v>
+      </c>
+      <c r="C102">
+        <v>51</v>
+      </c>
+      <c r="D102">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>61</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>700</v>
+      </c>
+      <c r="D103">
+        <v>698.92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104">
+        <v>582</v>
+      </c>
+      <c r="D104">
+        <v>586.29999999999995</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>61</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>158</v>
+      </c>
+      <c r="D105">
+        <v>157.72499999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106">
+        <v>308</v>
+      </c>
+      <c r="D106">
+        <v>316.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>61</v>
+      </c>
+      <c r="B107" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>6123</v>
+      </c>
+      <c r="D107">
+        <v>6122.66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>61</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>487</v>
+      </c>
+      <c r="D108">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="B109" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109">
+        <v>1908</v>
+      </c>
+      <c r="D109">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B110" t="s">
+        <v>23</v>
+      </c>
+      <c r="C110">
+        <v>12518</v>
+      </c>
+      <c r="D110">
+        <v>14900.143</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>61</v>
+      </c>
+      <c r="B111" t="s">
+        <v>22</v>
+      </c>
+      <c r="C111">
+        <v>56684</v>
+      </c>
+      <c r="D111">
+        <v>58721</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112" t="s">
+        <v>21</v>
+      </c>
+      <c r="C112">
+        <v>2228</v>
+      </c>
+      <c r="D112">
+        <v>2877.4949999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>61</v>
+      </c>
+      <c r="B113" t="s">
+        <v>20</v>
+      </c>
+      <c r="C113">
+        <v>325</v>
+      </c>
+      <c r="D113">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+      <c r="B114" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>1920</v>
+      </c>
+      <c r="D114">
+        <v>3673.85</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115">
+        <v>9261</v>
+      </c>
+      <c r="D115">
+        <v>10230.245999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>61</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116">
+        <v>53</v>
+      </c>
+      <c r="D116">
+        <v>78.171999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117">
+        <v>509</v>
+      </c>
+      <c r="D117">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>61</v>
+      </c>
+      <c r="B118" t="s">
+        <v>15</v>
+      </c>
+      <c r="C118">
+        <v>124</v>
+      </c>
+      <c r="D118">
+        <v>122.89400000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>61</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>72</v>
+      </c>
+      <c r="D119">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>61</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120">
+        <v>4632</v>
+      </c>
+      <c r="D120">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>61</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121">
+        <v>35</v>
+      </c>
+      <c r="D121">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>61</v>
+      </c>
+      <c r="B122" t="s">
+        <v>11</v>
+      </c>
+      <c r="C122">
+        <v>1197</v>
+      </c>
+      <c r="D122">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>61</v>
+      </c>
+      <c r="B123" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123">
+        <v>5791</v>
+      </c>
+      <c r="D123">
+        <v>5766.0780000000004</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>61</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124">
+        <v>5073</v>
+      </c>
+      <c r="D124">
+        <v>5172.3590000000004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>2987</v>
+      </c>
+      <c r="D125">
+        <v>3032.2579999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>61</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>25</v>
+      </c>
+      <c r="D126">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>61</v>
+      </c>
+      <c r="B127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127">
+        <v>3</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>61</v>
+      </c>
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128">
+        <v>3</v>
+      </c>
+      <c r="D128">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" t="s">
+        <v>4</v>
+      </c>
+      <c r="C129">
+        <v>22834</v>
+      </c>
+      <c r="D129">
+        <v>23405.055</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>61</v>
+      </c>
+      <c r="B130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>6247</v>
+      </c>
+      <c r="D130">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
+      </c>
+      <c r="D131" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>19210</v>
+      </c>
+      <c r="D132">
+        <v>21767.221000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>60</v>
+      </c>
+      <c r="B133" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="s">
+        <v>64</v>
+      </c>
+      <c r="G133" t="s">
+        <v>26</v>
+      </c>
+      <c r="H133">
+        <v>8135.91</v>
+      </c>
+      <c r="I133">
+        <v>6.8780000000000001</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>5076.9759999999997</v>
+      </c>
+      <c r="L133">
+        <v>782.10799999999995</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>60</v>
+      </c>
+      <c r="B134" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134">
+        <v>3035</v>
+      </c>
+      <c r="F134" t="s">
+        <v>64</v>
+      </c>
+      <c r="G134" t="s">
+        <v>25</v>
+      </c>
+      <c r="H134">
+        <v>2551</v>
+      </c>
+      <c r="I134">
+        <v>6</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>300</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" t="s">
+        <v>32</v>
+      </c>
+      <c r="C135">
+        <v>3796</v>
+      </c>
+      <c r="F135" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" t="s">
+        <v>24</v>
+      </c>
+      <c r="H135">
+        <v>9593</v>
+      </c>
+      <c r="I135">
+        <v>3133</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1005</v>
+      </c>
+      <c r="L135">
+        <v>17</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2752</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>60</v>
+      </c>
+      <c r="B136" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136">
+        <v>87</v>
+      </c>
+      <c r="F136" t="s">
+        <v>64</v>
+      </c>
+      <c r="G136" t="s">
+        <v>23</v>
+      </c>
+      <c r="H136">
+        <v>25867.055</v>
+      </c>
+      <c r="I136">
+        <v>25551.829000000002</v>
+      </c>
+      <c r="J136">
+        <v>14.75</v>
+      </c>
+      <c r="K136">
+        <v>10298.177</v>
+      </c>
+      <c r="L136">
+        <v>7137.5169999999998</v>
+      </c>
+      <c r="M136">
+        <v>218.32900000000001</v>
+      </c>
+      <c r="N136">
+        <v>63130</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>60</v>
+      </c>
+      <c r="B137" t="s">
+        <v>30</v>
+      </c>
+      <c r="C137">
+        <v>700</v>
+      </c>
+      <c r="F137" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" t="s">
+        <v>58</v>
+      </c>
+      <c r="H137">
+        <v>615</v>
+      </c>
+      <c r="I137">
+        <v>2378</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138" t="s">
+        <v>29</v>
+      </c>
+      <c r="C138">
+        <v>616</v>
+      </c>
+      <c r="F138" t="s">
+        <v>64</v>
+      </c>
+      <c r="G138" t="s">
+        <v>22</v>
+      </c>
+      <c r="H138">
+        <v>96967</v>
+      </c>
+      <c r="I138">
+        <v>11255</v>
+      </c>
+      <c r="J138">
+        <v>29</v>
+      </c>
+      <c r="K138">
+        <v>44580</v>
+      </c>
+      <c r="L138">
+        <v>39224</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>10799</v>
+      </c>
+      <c r="O138">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>28</v>
+      </c>
+      <c r="C139">
+        <v>158</v>
+      </c>
+      <c r="F139" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" t="s">
+        <v>21</v>
+      </c>
+      <c r="H139">
+        <v>10855</v>
+      </c>
+      <c r="I139">
+        <v>3392</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2091</v>
+      </c>
+      <c r="L139">
+        <v>2604</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>60</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140">
+        <v>316</v>
+      </c>
+      <c r="F140" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" t="s">
+        <v>20</v>
+      </c>
+      <c r="H140">
+        <v>6062</v>
+      </c>
+      <c r="I140">
+        <v>57</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>329</v>
+      </c>
+      <c r="L140">
+        <v>172</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>2000</v>
+      </c>
+      <c r="O140">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>60</v>
+      </c>
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="C141">
+        <v>6126</v>
+      </c>
+      <c r="F141" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141">
+        <v>117</v>
+      </c>
+      <c r="I141">
+        <v>1987</v>
+      </c>
+      <c r="J141">
+        <v>665</v>
+      </c>
+      <c r="K141">
+        <v>3</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>60</v>
+      </c>
+      <c r="B142" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142">
+        <v>462</v>
+      </c>
+      <c r="F142" t="s">
+        <v>64</v>
+      </c>
+      <c r="G142" t="s">
+        <v>19</v>
+      </c>
+      <c r="H142">
+        <v>6697.4470000000001</v>
+      </c>
+      <c r="I142">
+        <v>529</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2451.15</v>
+      </c>
+      <c r="L142">
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>60</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143">
+        <v>2013</v>
+      </c>
+      <c r="F143" t="s">
+        <v>64</v>
+      </c>
+      <c r="G143" t="s">
+        <v>18</v>
+      </c>
+      <c r="H143">
+        <v>65617</v>
+      </c>
+      <c r="I143">
+        <v>22220</v>
+      </c>
+      <c r="J143">
+        <v>768</v>
+      </c>
+      <c r="K143">
+        <v>9137</v>
+      </c>
+      <c r="L143">
+        <v>18901</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>60</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>13610</v>
+      </c>
+      <c r="F144" t="s">
+        <v>64</v>
+      </c>
+      <c r="G144" t="s">
+        <v>100</v>
+      </c>
+      <c r="H144">
+        <v>915</v>
+      </c>
+      <c r="I144">
+        <v>43</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>60</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>59185</v>
+      </c>
+      <c r="F145" t="s">
+        <v>64</v>
+      </c>
+      <c r="G145" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145">
+        <v>1275</v>
+      </c>
+      <c r="I145">
+        <v>1587.694</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>68.165000000000006</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>60</v>
+      </c>
+      <c r="B146" t="s">
+        <v>21</v>
+      </c>
+      <c r="C146">
+        <v>2355</v>
+      </c>
+      <c r="F146" t="s">
+        <v>64</v>
+      </c>
+      <c r="G146" t="s">
+        <v>70</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>60</v>
+      </c>
+      <c r="B147" t="s">
+        <v>20</v>
+      </c>
+      <c r="C147">
+        <v>327</v>
+      </c>
+      <c r="F147" t="s">
+        <v>64</v>
+      </c>
+      <c r="G147" t="s">
+        <v>16</v>
+      </c>
+      <c r="H147">
+        <v>2180</v>
+      </c>
+      <c r="I147">
+        <v>877</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>436</v>
+      </c>
+      <c r="L147">
+        <v>69</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148">
+        <v>1919</v>
+      </c>
+      <c r="F148" t="s">
+        <v>64</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148">
+        <v>513.64199999999994</v>
+      </c>
+      <c r="I148">
+        <v>1330.2659999999998</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>63.793999999999997</v>
+      </c>
+      <c r="L148">
+        <v>116.27200000000001</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>60</v>
+      </c>
+      <c r="B149" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149">
+        <v>9617</v>
+      </c>
+      <c r="F149" t="s">
+        <v>64</v>
+      </c>
+      <c r="G149" t="s">
+        <v>72</v>
+      </c>
+      <c r="H149">
+        <v>593</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0.1</v>
+      </c>
+      <c r="L149">
+        <v>74.8</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>60</v>
+      </c>
+      <c r="B150" t="s">
+        <v>17</v>
+      </c>
+      <c r="C150">
+        <v>59</v>
+      </c>
+      <c r="F150" t="s">
+        <v>64</v>
+      </c>
+      <c r="G150" t="s">
+        <v>69</v>
+      </c>
+      <c r="H150">
+        <v>473</v>
+      </c>
+      <c r="I150">
+        <v>16</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>60</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+      <c r="C151">
+        <v>525</v>
+      </c>
+      <c r="F151" t="s">
+        <v>64</v>
+      </c>
+      <c r="G151" t="s">
+        <v>14</v>
+      </c>
+      <c r="H151">
+        <v>225</v>
+      </c>
+      <c r="I151">
+        <v>661.923</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>60</v>
+      </c>
+      <c r="B152" t="s">
+        <v>15</v>
+      </c>
+      <c r="C152">
+        <v>154</v>
+      </c>
+      <c r="F152" t="s">
+        <v>64</v>
+      </c>
+      <c r="G152" t="s">
+        <v>13</v>
+      </c>
+      <c r="H152">
+        <v>28356</v>
+      </c>
+      <c r="I152">
+        <v>37</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>3391</v>
+      </c>
+      <c r="L152">
+        <v>1526.259</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>485</v>
+      </c>
+      <c r="O152">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>60</v>
+      </c>
+      <c r="B153" t="s">
+        <v>14</v>
+      </c>
+      <c r="C153">
+        <v>118</v>
+      </c>
+      <c r="F153" t="s">
+        <v>64</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153">
+        <v>1078</v>
+      </c>
+      <c r="I153">
+        <v>658</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>37</v>
+      </c>
+      <c r="L153">
+        <v>17</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>60</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>4393</v>
+      </c>
+      <c r="F154" t="s">
+        <v>64</v>
+      </c>
+      <c r="G154" t="s">
+        <v>11</v>
+      </c>
+      <c r="H154">
+        <v>1563</v>
+      </c>
+      <c r="I154">
+        <v>31372</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>867</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>60</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155">
+        <v>35</v>
+      </c>
+      <c r="F155" t="s">
+        <v>64</v>
+      </c>
+      <c r="G155" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155">
+        <v>29961</v>
+      </c>
+      <c r="I155">
+        <v>2370</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>4886</v>
+      </c>
+      <c r="L155">
+        <v>108</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>60</v>
+      </c>
+      <c r="B156" t="s">
+        <v>11</v>
+      </c>
+      <c r="C156">
+        <v>1230</v>
+      </c>
+      <c r="F156" t="s">
+        <v>64</v>
+      </c>
+      <c r="G156" t="s">
+        <v>9</v>
+      </c>
+      <c r="H156">
+        <v>8048</v>
+      </c>
+      <c r="I156">
+        <v>6168</v>
+      </c>
+      <c r="J156">
+        <v>25</v>
+      </c>
+      <c r="K156">
+        <v>4936.8379999999997</v>
+      </c>
+      <c r="L156">
+        <v>447</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>60</v>
+      </c>
+      <c r="B157" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157">
+        <v>5808</v>
+      </c>
+      <c r="F157" t="s">
+        <v>64</v>
+      </c>
+      <c r="G157" t="s">
+        <v>8</v>
+      </c>
+      <c r="H157">
+        <v>11233</v>
+      </c>
+      <c r="I157">
+        <v>6730</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>3130</v>
+      </c>
+      <c r="L157">
+        <v>1326</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>1411</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>60</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158">
+        <v>5127</v>
+      </c>
+      <c r="F158" t="s">
+        <v>64</v>
+      </c>
+      <c r="G158" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158">
+        <v>4255</v>
+      </c>
+      <c r="I158">
+        <v>3022</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>9</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>60</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>2968</v>
+      </c>
+      <c r="F159" t="s">
+        <v>64</v>
+      </c>
+      <c r="G159" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159">
+        <v>2754</v>
+      </c>
+      <c r="I159">
+        <v>2522</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>533</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1940</v>
+      </c>
+      <c r="O159">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>60</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>398</v>
+      </c>
+      <c r="F160" t="s">
+        <v>64</v>
+      </c>
+      <c r="G160" t="s">
+        <v>5</v>
+      </c>
+      <c r="H160">
+        <v>1133</v>
+      </c>
+      <c r="I160">
+        <v>1295</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>239</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>688</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>60</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="F161" t="s">
+        <v>64</v>
+      </c>
+      <c r="G161" t="s">
+        <v>4</v>
+      </c>
+      <c r="H161">
+        <v>49295.904999999999</v>
+      </c>
+      <c r="I161">
+        <v>20053</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>22943</v>
+      </c>
+      <c r="L161">
+        <v>7008.0630000000001</v>
+      </c>
+      <c r="M161">
+        <v>4.7960000000000003</v>
+      </c>
+      <c r="N161">
+        <v>7399</v>
+      </c>
+      <c r="O161">
+        <v>54.094999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>60</v>
+      </c>
+      <c r="B162" t="s">
+        <v>5</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="F162" t="s">
+        <v>64</v>
+      </c>
+      <c r="G162" t="s">
+        <v>3</v>
+      </c>
+      <c r="H162">
+        <v>7751</v>
+      </c>
+      <c r="I162">
+        <v>16329</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>5819</v>
+      </c>
+      <c r="L162">
+        <v>104</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>9688</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>60</v>
+      </c>
+      <c r="B163" t="s">
+        <v>4</v>
+      </c>
+      <c r="C163">
+        <v>22961</v>
+      </c>
+      <c r="F163" t="s">
+        <v>64</v>
+      </c>
+      <c r="G163" t="s">
+        <v>68</v>
+      </c>
+      <c r="H163">
+        <v>41810</v>
+      </c>
+      <c r="I163">
+        <v>25868</v>
+      </c>
+      <c r="J163">
+        <v>624</v>
+      </c>
+      <c r="K163">
+        <v>4503</v>
+      </c>
+      <c r="L163">
+        <v>249</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>60</v>
+      </c>
+      <c r="B164" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164">
+        <v>7506</v>
+      </c>
+      <c r="F164" t="s">
+        <v>64</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>35335</v>
+      </c>
+      <c r="I164">
+        <v>5883</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>429</v>
+      </c>
+      <c r="L164">
+        <v>425</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>13835</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>60</v>
+      </c>
+      <c r="B165" t="s">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="s">
+        <v>64</v>
+      </c>
+      <c r="G165" t="s">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>58315.67</v>
+      </c>
+      <c r="I165">
+        <v>4676.9740000000002</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>14305.634</v>
+      </c>
+      <c r="L165">
+        <v>9601.2189999999991</v>
+      </c>
+      <c r="M165">
+        <v>9</v>
+      </c>
+      <c r="N165">
+        <v>9487</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>60</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166">
+        <v>23012</v>
+      </c>
+      <c r="F166" t="s">
+        <v>63</v>
+      </c>
+      <c r="G166" t="s">
+        <v>34</v>
+      </c>
+      <c r="H166">
+        <v>98</v>
+      </c>
+      <c r="I166">
+        <v>1913</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" t="s">
+        <v>34</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>59</v>
+      </c>
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168">
+        <v>3133</v>
+      </c>
+      <c r="D168">
+        <v>3225.9789999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>59</v>
+      </c>
+      <c r="B169" t="s">
+        <v>32</v>
+      </c>
+      <c r="C169">
+        <v>4670</v>
+      </c>
+      <c r="D169">
+        <v>4672.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>59</v>
+      </c>
+      <c r="B170" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170">
+        <v>87</v>
+      </c>
+      <c r="D170">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>59</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>700</v>
+      </c>
+      <c r="D171">
+        <v>702.8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>59</v>
+      </c>
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172">
+        <v>739</v>
+      </c>
+      <c r="D172">
+        <v>801.3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>59</v>
+      </c>
+      <c r="B173" t="s">
+        <v>28</v>
+      </c>
+      <c r="C173">
+        <v>158</v>
+      </c>
+      <c r="D173">
+        <v>157.72499999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174">
+        <v>339</v>
+      </c>
+      <c r="D174">
+        <v>339.42399999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>59</v>
+      </c>
+      <c r="B175" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175">
+        <v>6102</v>
+      </c>
+      <c r="D175">
+        <v>6267.0330000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>59</v>
+      </c>
+      <c r="B176" t="s">
+        <v>25</v>
+      </c>
+      <c r="C176">
+        <v>329</v>
+      </c>
+      <c r="D176">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>59</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>2145</v>
+      </c>
+      <c r="D177">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B178" t="s">
+        <v>23</v>
+      </c>
+      <c r="C178">
+        <v>16592</v>
+      </c>
+      <c r="D178">
+        <v>17513.998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" t="s">
+        <v>22</v>
+      </c>
+      <c r="C179">
+        <v>60688</v>
+      </c>
+      <c r="D179">
+        <v>62201</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>59</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180">
+        <v>3153</v>
+      </c>
+      <c r="D180">
+        <v>4119.25</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" t="s">
+        <v>20</v>
+      </c>
+      <c r="C181">
+        <v>323</v>
+      </c>
+      <c r="D181">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>59</v>
+      </c>
+      <c r="B182" t="s">
+        <v>18</v>
+      </c>
+      <c r="C182">
+        <v>10224</v>
+      </c>
+      <c r="D182">
+        <v>10870.621999999999</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>59</v>
+      </c>
+      <c r="B183" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183">
+        <v>74</v>
+      </c>
+      <c r="D183">
+        <v>78.072000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>59</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184">
+        <v>534</v>
+      </c>
+      <c r="D184">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>59</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185">
+        <v>154</v>
+      </c>
+      <c r="D185">
+        <v>152.744</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>59</v>
+      </c>
+      <c r="B186" t="s">
+        <v>14</v>
+      </c>
+      <c r="C186">
+        <v>118</v>
+      </c>
+      <c r="D186">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>59</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187">
+        <v>4484</v>
+      </c>
+      <c r="D187">
+        <v>6647.875</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>59</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+      <c r="C188">
+        <v>3068</v>
+      </c>
+      <c r="D188">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B189" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189">
+        <v>5953</v>
+      </c>
+      <c r="D189">
+        <v>6298.25</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>59</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>2972</v>
+      </c>
+      <c r="D190">
+        <v>3012.527</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>59</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>397</v>
+      </c>
+      <c r="D191">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>59</v>
+      </c>
+      <c r="B192" t="s">
+        <v>6</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>59</v>
+      </c>
+      <c r="B193" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193">
+        <v>3</v>
+      </c>
+      <c r="D193">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>59</v>
+      </c>
+      <c r="B194" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194">
+        <v>24447</v>
+      </c>
+      <c r="D194">
+        <v>26819.19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>59</v>
+      </c>
+      <c r="B195" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195">
+        <v>9648</v>
+      </c>
+      <c r="D195">
+        <v>9976</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>59</v>
+      </c>
+      <c r="B196" t="s">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="D196" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>59</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1</v>
+      </c>
+      <c r="C197">
+        <v>1111</v>
+      </c>
+      <c r="D197">
+        <v>1110.4000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C197" xr:uid="{4BEF139F-7692-40F4-9145-0CBC979F1200}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="2020"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5CA0CF-3E57-4785-A198-BD0E41C4AB48}">
   <dimension ref="A2:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -12835,12 +21396,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA61E4D-DBEC-4975-AB25-64558DA0732D}">
   <dimension ref="A1:U412"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A329" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30494,7 +39055,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB991B6-A38E-4C3C-AEF0-00E1090914FE}">
   <dimension ref="A3:Y413"/>
   <sheetViews>
@@ -49309,7 +57870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CE522D-9D59-4660-A14B-19467F04759B}">
   <dimension ref="A1:L411"/>
   <sheetViews>
@@ -62501,7 +71062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8299D01D-DB5D-4241-8C0B-5F6AD8571035}">
   <dimension ref="A1:P197"/>
   <sheetViews>
@@ -68478,12 +77039,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB809050-6A03-4E2F-9B6F-4FA4886B9281}">
   <dimension ref="A1:N418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C414" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="A8" sqref="A8:N418"/>
@@ -86637,11 +95198,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE702068-A182-4159-B361-5F5AD9B522CA}">
   <dimension ref="A1:V197"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F61" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
